--- a/docs/画面項目定義書/mo_image_add.xlsx
+++ b/docs/画面項目定義書/mo_image_add.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626EDB9E-CDAA-47A2-9309-11C469A9F55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99751483-B41F-4123-B495-F27E3D24AE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
+    <sheet name="シート１" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>日本工学院</t>
   </si>
@@ -140,40 +140,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>入力覧「イメージ名」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧タイトル「イメージ名」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧タイトル「イメージファイル」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>イメージファイル</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -195,24 +161,47 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>入力覧「イメージファイル」</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <t>mo_image_add</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>mo_image_add.html</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックスタイトル「イメージ名」</t>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックス「イメージ名」</t>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ボタンタイトル「イメージファイル」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージファイルステータス表示覧</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>ラン</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ファイルアップロード</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>イメージ追加モーダル</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
+    <t>表示</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -311,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -467,17 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -529,7 +507,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,37 +566,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -629,6 +595,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1080,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1133,10 +1105,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1146,11 +1118,13 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
@@ -1192,265 +1166,257 @@
       <c r="A9" s="21">
         <v>1</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" ht="13">
-      <c r="A10" s="28">
+      <c r="B9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" ht="24">
+      <c r="A10" s="24">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="1:7" ht="24">
+      <c r="B10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13">
       <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13">
-      <c r="A12" s="28">
+      <c r="D11" s="27"/>
+      <c r="E11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24">
+      <c r="A12" s="24">
         <v>4</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13">
+      <c r="B12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" ht="24">
       <c r="A13" s="21">
         <v>5</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13">
-      <c r="A14" s="28">
+      <c r="B13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24">
+      <c r="A14" s="24">
         <v>6</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7" ht="13">
       <c r="A15" s="21">
         <v>7</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24">
+      <c r="A16" s="24">
+        <v>8</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24">
-      <c r="A16" s="28">
-        <v>8</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="1:7" ht="24">
+    <row r="17" spans="1:7" ht="13">
       <c r="A17" s="21">
         <v>9</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="18" spans="1:7" ht="13">
-      <c r="A18" s="28">
+      <c r="A18" s="24">
         <v>10</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="13">
       <c r="A19" s="21">
         <v>11</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="13">
-      <c r="A20" s="28">
+      <c r="A20" s="24">
         <v>12</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="13">
       <c r="A21" s="21">
         <v>13</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="13">
-      <c r="A22" s="28">
+      <c r="A22" s="24">
         <v>14</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="13">
       <c r="A23" s="21">
         <v>15</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="13">
-      <c r="A24" s="28">
+      <c r="A24" s="24">
         <v>16</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="13">
       <c r="A25" s="21">
         <v>17</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="13">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="13">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="13">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="13">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/画面項目定義書/mo_image_add.xlsx
+++ b/docs/画面項目定義書/mo_image_add.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99751483-B41F-4123-B495-F27E3D24AE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4EDE4F-0E3D-4693-88FA-9B6FC3C9CBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>日本工学院</t>
   </si>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ボタンタイトル「イメージファイル」</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>イメージファイルステータス表示覧</t>
     <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
@@ -202,6 +198,17 @@
   </si>
   <si>
     <t>表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージファイルステータス表示タイトル「イメージファイル」</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -507,7 +514,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -595,12 +602,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1052,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1249,10 +1250,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="28" t="s">
@@ -1269,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="28" t="s">
@@ -1284,11 +1285,11 @@
       <c r="A16" s="24">
         <v>8</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>34</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>25</v>
